--- a/pre_data/Offer_pre.xlsx
+++ b/pre_data/Offer_pre.xlsx
@@ -2340,109 +2340,109 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK17">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:37">
